--- a/public/data/SUDORS_Dashboard_Data.xlsx
+++ b/public/data/SUDORS_Dashboard_Data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="429">
   <si>
     <t>Variable Name</t>
   </si>
@@ -1190,49 +1190,55 @@
     <t>Alaska</t>
   </si>
   <si>
-    <t>Heroin;Methamphetamine</t>
-  </si>
-  <si>
-    <t>Prescription opioids</t>
-  </si>
-  <si>
-    <t>Heroin;Prescription opioids;Methamphetamine</t>
-  </si>
-  <si>
-    <t>Illictly manufactured fentanyls</t>
-  </si>
-  <si>
-    <t>Methamphetamine</t>
+    <t>Methamphetamine and other opioids or stimulants</t>
+  </si>
+  <si>
+    <t>Methamphetamine with no other stimulants or opioids</t>
+  </si>
+  <si>
+    <t>Illicitly Manufactured Fentanyls with no other opioids or stimulants</t>
+  </si>
+  <si>
+    <t>Prescription Opioids with no other opioids or stimulants</t>
+  </si>
+  <si>
+    <t>Heroin, Prescription Opioids, and Methamphetamine</t>
   </si>
   <si>
     <t>Arizona</t>
   </si>
   <si>
-    <t>Illictly manufactured fentanyls;Cocaine</t>
-  </si>
-  <si>
-    <t>Illictly manufactured fentanyls;Methamphetamine</t>
+    <t>Illicitly Manufactured Fentanyls and Methamphetamine</t>
+  </si>
+  <si>
+    <t>Illicitly Manufactured Fentanyls and Cocaine</t>
   </si>
   <si>
     <t>Connecticut</t>
   </si>
   <si>
-    <t>Illictly manufactured fentanyls;Heroin</t>
-  </si>
-  <si>
-    <t>Illictly manufactured fentanyls;Prescription opioids</t>
+    <t>Illicitly Manufactured Fentanyls and Prescription Opioids</t>
+  </si>
+  <si>
+    <t>Illicitly Manufactured Fentanyls and Heroin</t>
+  </si>
+  <si>
+    <t>Illicitly Manufactured Fentanyls, Heroin, and Cocaine</t>
   </si>
   <si>
     <t>Delaware</t>
   </si>
   <si>
-    <t>Illictly manufactured fentanyls;Heroin;Cocaine</t>
+    <t>Illicitly Manufactured Fentanyls and other opioids or stimulants</t>
   </si>
   <si>
     <t>District of Columbia</t>
   </si>
   <si>
-    <t>Cocaine</t>
+    <t>No opioids or stimulants</t>
+  </si>
+  <si>
+    <t>Cocaine with no other stimulants or opioids</t>
   </si>
   <si>
     <t>Georgia</t>
@@ -1265,7 +1271,10 @@
     <t>Montana</t>
   </si>
   <si>
-    <t>Heroin</t>
+    <t>Heroin and Methamphetamine</t>
+  </si>
+  <si>
+    <t>Heroin with no other opioids or stimulants</t>
   </si>
   <si>
     <t>Nevada</t>
@@ -1278,6 +1287,9 @@
   </si>
   <si>
     <t>New Mexico</t>
+  </si>
+  <si>
+    <t>Heroin and Prescription Opioids</t>
   </si>
   <si>
     <t>North Carolina</t>
@@ -4466,46 +4478,46 @@
         <v>384</v>
       </c>
       <c r="AA2" t="n">
-        <v>9.0</v>
+        <v>23.0</v>
       </c>
       <c r="AB2" t="n">
-        <v>5.2</v>
+        <v>13.4</v>
       </c>
       <c r="AC2" t="s">
         <v>385</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>7.0</v>
+        <v>12.2</v>
       </c>
       <c r="AF2" t="s">
         <v>386</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="AI2" t="s">
         <v>387</v>
       </c>
       <c r="AJ2" t="n">
-        <v>22.0</v>
+        <v>12.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>12.8</v>
+        <v>7.0</v>
       </c>
       <c r="AL2" t="s">
         <v>388</v>
       </c>
       <c r="AM2" t="n">
-        <v>44.0</v>
+        <v>12.0</v>
       </c>
       <c r="AN2" t="n">
-        <v>25.6</v>
+        <v>7.0</v>
       </c>
       <c r="AO2" t="n">
         <v>61.0</v>
@@ -4643,7 +4655,7 @@
         <v>0.0</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CI2" t="n">
         <v>0.0</v>
@@ -4706,7 +4718,7 @@
         <v>0.0</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD2" t="n">
         <v>0.0</v>
@@ -4769,7 +4781,7 @@
         <v>0.0</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY2" t="n">
         <v>0.0</v>
@@ -4972,25 +4984,25 @@
         <v>41.5</v>
       </c>
       <c r="Z3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.0</v>
+        <v>843.0</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.3</v>
+        <v>35.1</v>
       </c>
       <c r="AC3" t="s">
         <v>385</v>
       </c>
       <c r="AD3" t="n">
-        <v>130.0</v>
+        <v>397.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.4</v>
+        <v>16.5</v>
       </c>
       <c r="AF3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG3" t="n">
         <v>311.0</v>
@@ -4999,22 +5011,22 @@
         <v>12.9</v>
       </c>
       <c r="AI3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AJ3" t="n">
-        <v>444.0</v>
+        <v>114.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.5</v>
+        <v>4.7</v>
       </c>
       <c r="AL3" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AM3" t="n">
-        <v>855.0</v>
+        <v>103.0</v>
       </c>
       <c r="AN3" t="n">
-        <v>35.6</v>
+        <v>4.3</v>
       </c>
       <c r="AO3" t="n">
         <v>705.0</v>
@@ -5481,25 +5493,25 @@
         <v>2.1</v>
       </c>
       <c r="Z4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.0</v>
+        <v>428.0</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.5</v>
+        <v>31.1</v>
       </c>
       <c r="AC4" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>275.0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="AF4" t="s">
         <v>393</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>394</v>
       </c>
       <c r="AG4" t="n">
         <v>119.0</v>
@@ -5508,22 +5520,22 @@
         <v>8.7</v>
       </c>
       <c r="AI4" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AJ4" t="n">
-        <v>275.0</v>
+        <v>105.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>20.0</v>
+        <v>7.6</v>
       </c>
       <c r="AL4" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="AM4" t="n">
-        <v>455.0</v>
+        <v>72.0</v>
       </c>
       <c r="AN4" t="n">
-        <v>33.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO4" t="n">
         <v>512.0</v>
@@ -5787,7 +5799,7 @@
         <v>0.0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY4" t="n">
         <v>0.0</v>
@@ -5915,7 +5927,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B5" t="n">
         <v>2020.0</v>
@@ -5990,25 +6002,25 @@
         <v>9.7</v>
       </c>
       <c r="Z5" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA5" t="n">
-        <v>30.0</v>
+        <v>115.0</v>
       </c>
       <c r="AB5" t="n">
-        <v>6.7</v>
+        <v>25.8</v>
       </c>
       <c r="AC5" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="AD5" t="n">
-        <v>32.0</v>
+        <v>74.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>7.2</v>
+        <v>16.6</v>
       </c>
       <c r="AF5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG5" t="n">
         <v>54.0</v>
@@ -6017,22 +6029,22 @@
         <v>12.1</v>
       </c>
       <c r="AI5" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AJ5" t="n">
-        <v>74.0</v>
+        <v>32.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>16.6</v>
+        <v>7.2</v>
       </c>
       <c r="AL5" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="AM5" t="n">
-        <v>144.0</v>
+        <v>29.0</v>
       </c>
       <c r="AN5" t="n">
-        <v>32.4</v>
+        <v>6.5</v>
       </c>
       <c r="AO5" t="n">
         <v>172.0</v>
@@ -6125,7 +6137,7 @@
         <v>0.0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="BT5" t="n">
         <v>0.0</v>
@@ -6152,7 +6164,7 @@
         <v>0.0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CC5" t="n">
         <v>0.0</v>
@@ -6170,7 +6182,7 @@
         <v>0.0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CI5" t="n">
         <v>0.0</v>
@@ -6233,7 +6245,7 @@
         <v>0.0</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD5" t="n">
         <v>0.0</v>
@@ -6296,7 +6308,7 @@
         <v>0.0</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY5" t="n">
         <v>0.0</v>
@@ -6424,7 +6436,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B6" t="n">
         <v>2020.0</v>
@@ -6475,7 +6487,7 @@
         <v>8.0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.1</v>
+        <v>9999.0</v>
       </c>
       <c r="S6" t="n">
         <v>80.6</v>
@@ -6499,25 +6511,25 @@
         <v>1.6</v>
       </c>
       <c r="Z6" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="AA6" t="n">
-        <v>35.0</v>
+        <v>143.0</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.9</v>
+        <v>28.1</v>
       </c>
       <c r="AC6" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AD6" t="n">
-        <v>40.0</v>
+        <v>93.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>7.9</v>
+        <v>18.3</v>
       </c>
       <c r="AF6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG6" t="n">
         <v>59.0</v>
@@ -6526,22 +6538,22 @@
         <v>11.6</v>
       </c>
       <c r="AI6" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AJ6" t="n">
-        <v>93.0</v>
+        <v>54.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>18.3</v>
+        <v>10.6</v>
       </c>
       <c r="AL6" t="s">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AM6" t="n">
-        <v>146.0</v>
+        <v>38.0</v>
       </c>
       <c r="AN6" t="n">
-        <v>28.7</v>
+        <v>7.5</v>
       </c>
       <c r="AO6" t="n">
         <v>155.0</v>
@@ -6634,7 +6646,7 @@
         <v>0.0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="BT6" t="n">
         <v>0.0</v>
@@ -6679,7 +6691,7 @@
         <v>0.0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CI6" t="n">
         <v>0.0</v>
@@ -6742,7 +6754,7 @@
         <v>0.0</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD6" t="n">
         <v>0.0</v>
@@ -6805,7 +6817,7 @@
         <v>0.0</v>
       </c>
       <c r="DX6" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY6" t="n">
         <v>0.0</v>
@@ -6933,7 +6945,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B7" t="n">
         <v>2020.0</v>
@@ -7008,49 +7020,49 @@
         <v>32.4</v>
       </c>
       <c r="Z7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AA7" t="n">
-        <v>114.0</v>
+        <v>222.0</v>
       </c>
       <c r="AB7" t="n">
-        <v>6.3</v>
+        <v>12.3</v>
       </c>
       <c r="AC7" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="AD7" t="n">
-        <v>154.0</v>
+        <v>200.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>8.5</v>
+        <v>11.1</v>
       </c>
       <c r="AF7" t="s">
+        <v>400</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>144.0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AI7" t="s">
         <v>385</v>
       </c>
-      <c r="AG7" t="n">
-        <v>211.0</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>387</v>
-      </c>
       <c r="AJ7" t="n">
-        <v>235.0</v>
+        <v>143.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>13.0</v>
+        <v>7.9</v>
       </c>
       <c r="AL7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="AM7" t="n">
-        <v>252.0</v>
+        <v>138.0</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.9</v>
+        <v>7.6</v>
       </c>
       <c r="AO7" t="n">
         <v>537.0</v>
@@ -7314,7 +7326,7 @@
         <v>0.0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY7" t="n">
         <v>0.0</v>
@@ -7442,7 +7454,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B8" t="n">
         <v>2020.0</v>
@@ -7517,49 +7529,49 @@
         <v>42.0</v>
       </c>
       <c r="Z8" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AA8" t="n">
-        <v>20.0</v>
+        <v>90.0</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.6</v>
+        <v>20.8</v>
       </c>
       <c r="AC8" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="AD8" t="n">
-        <v>25.0</v>
+        <v>84.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>5.8</v>
+        <v>19.4</v>
       </c>
       <c r="AF8" t="s">
+        <v>399</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AI8" t="s">
         <v>385</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AJ8" t="n">
         <v>41.0</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AK8" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AL8" t="s">
         <v>387</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>388</v>
-      </c>
       <c r="AM8" t="n">
-        <v>125.0</v>
+        <v>39.0</v>
       </c>
       <c r="AN8" t="n">
-        <v>28.9</v>
+        <v>9.0</v>
       </c>
       <c r="AO8" t="n">
         <v>76.0</v>
@@ -7951,7 +7963,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B9" t="n">
         <v>2020.0</v>
@@ -8026,49 +8038,49 @@
         <v>35.5</v>
       </c>
       <c r="Z9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AA9" t="n">
+        <v>613.0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>378.0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>140.0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>385</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>138.0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>393</v>
+      </c>
+      <c r="AM9" t="n">
         <v>112.0</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AN9" t="n">
         <v>5.5</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>385</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>151.0</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>172.0</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>391</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>378.0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>387</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>630.0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>30.8</v>
       </c>
       <c r="AO9" t="n">
         <v>708.0</v>
@@ -8161,7 +8173,7 @@
         <v>0.0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="BT9" t="n">
         <v>0.0</v>
@@ -8269,7 +8281,7 @@
         <v>0.0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD9" t="n">
         <v>0.0</v>
@@ -8460,7 +8472,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B10" t="n">
         <v>2020.0</v>
@@ -8535,49 +8547,49 @@
         <v>21.5</v>
       </c>
       <c r="Z10" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AA10" t="n">
-        <v>21.0</v>
+        <v>128.0</v>
       </c>
       <c r="AB10" t="n">
-        <v>4.5</v>
+        <v>27.2</v>
       </c>
       <c r="AC10" t="s">
         <v>391</v>
       </c>
       <c r="AD10" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG10" t="n">
         <v>44.0</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AH10" t="n">
         <v>9.4</v>
       </c>
-      <c r="AF10" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>9.8</v>
-      </c>
       <c r="AI10" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AJ10" t="n">
-        <v>62.0</v>
+        <v>39.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>13.2</v>
+        <v>8.3</v>
       </c>
       <c r="AL10" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AM10" t="n">
-        <v>135.0</v>
+        <v>38.0</v>
       </c>
       <c r="AN10" t="n">
-        <v>28.7</v>
+        <v>8.1</v>
       </c>
       <c r="AO10" t="n">
         <v>189.0</v>
@@ -8661,7 +8673,7 @@
         <v>0.0</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="BQ10" t="n">
         <v>0.0</v>
@@ -8841,7 +8853,7 @@
         <v>0.0</v>
       </c>
       <c r="DX10" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY10" t="n">
         <v>0.0</v>
@@ -8969,7 +8981,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B11" t="n">
         <v>2020.0</v>
@@ -9044,25 +9056,25 @@
         <v>2.7</v>
       </c>
       <c r="Z11" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA11" t="n">
-        <v>136.0</v>
+        <v>1046.0</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.0</v>
+        <v>38.4</v>
       </c>
       <c r="AC11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>612.0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AF11" t="s">
         <v>394</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>165.0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>393</v>
       </c>
       <c r="AG11" t="n">
         <v>168.0</v>
@@ -9071,22 +9083,22 @@
         <v>6.2</v>
       </c>
       <c r="AI11" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="AJ11" t="n">
-        <v>612.0</v>
+        <v>165.0</v>
       </c>
       <c r="AK11" t="n">
-        <v>22.5</v>
+        <v>6.1</v>
       </c>
       <c r="AL11" t="s">
         <v>387</v>
       </c>
       <c r="AM11" t="n">
-        <v>1090.0</v>
+        <v>127.0</v>
       </c>
       <c r="AN11" t="n">
-        <v>40.0</v>
+        <v>4.7</v>
       </c>
       <c r="AO11" t="n">
         <v>961.0</v>
@@ -9350,7 +9362,7 @@
         <v>0.0</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY11" t="n">
         <v>0.0</v>
@@ -9478,7 +9490,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B12" t="n">
         <v>2020.0</v>
@@ -9553,25 +9565,25 @@
         <v>4.4</v>
       </c>
       <c r="Z12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>31.8</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>626.0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="AF12" t="s">
         <v>393</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>398</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>128.0</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>394</v>
       </c>
       <c r="AG12" t="n">
         <v>152.0</v>
@@ -9580,22 +9592,22 @@
         <v>6.6</v>
       </c>
       <c r="AI12" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AJ12" t="n">
-        <v>626.0</v>
+        <v>124.0</v>
       </c>
       <c r="AK12" t="n">
-        <v>27.0</v>
+        <v>5.4</v>
       </c>
       <c r="AL12" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AM12" t="n">
-        <v>768.0</v>
+        <v>107.0</v>
       </c>
       <c r="AN12" t="n">
-        <v>33.2</v>
+        <v>4.6</v>
       </c>
       <c r="AO12" t="n">
         <v>979.0</v>
@@ -9733,7 +9745,7 @@
         <v>0.0</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CI12" t="n">
         <v>0.0</v>
@@ -9796,7 +9808,7 @@
         <v>0.0</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD12" t="n">
         <v>0.0</v>
@@ -9859,7 +9871,7 @@
         <v>0.0</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY12" t="n">
         <v>0.0</v>
@@ -9987,7 +9999,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B13" t="n">
         <v>2020.0</v>
@@ -10062,25 +10074,25 @@
         <v>13.6</v>
       </c>
       <c r="Z13" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AA13" t="n">
-        <v>162.0</v>
+        <v>739.0</v>
       </c>
       <c r="AB13" t="n">
-        <v>5.8</v>
+        <v>26.4</v>
       </c>
       <c r="AC13" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AD13" t="n">
-        <v>198.0</v>
+        <v>453.0</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.1</v>
+        <v>16.2</v>
       </c>
       <c r="AF13" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG13" t="n">
         <v>275.0</v>
@@ -10089,22 +10101,22 @@
         <v>9.8</v>
       </c>
       <c r="AI13" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AJ13" t="n">
-        <v>453.0</v>
+        <v>196.0</v>
       </c>
       <c r="AK13" t="n">
-        <v>16.2</v>
+        <v>7.0</v>
       </c>
       <c r="AL13" t="s">
         <v>387</v>
       </c>
       <c r="AM13" t="n">
-        <v>760.0</v>
+        <v>181.0</v>
       </c>
       <c r="AN13" t="n">
-        <v>27.1</v>
+        <v>6.5</v>
       </c>
       <c r="AO13" t="n">
         <v>949.0</v>
@@ -10496,7 +10508,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B14" t="n">
         <v>2020.0</v>
@@ -10571,25 +10583,25 @@
         <v>37.1</v>
       </c>
       <c r="Z14" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AA14" t="n">
-        <v>73.0</v>
+        <v>224.0</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.6</v>
+        <v>23.4</v>
       </c>
       <c r="AC14" t="s">
         <v>385</v>
       </c>
       <c r="AD14" t="n">
-        <v>78.0</v>
+        <v>124.0</v>
       </c>
       <c r="AE14" t="n">
-        <v>8.2</v>
+        <v>13.0</v>
       </c>
       <c r="AF14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG14" t="n">
         <v>109.0</v>
@@ -10598,22 +10610,22 @@
         <v>11.4</v>
       </c>
       <c r="AI14" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="AJ14" t="n">
-        <v>136.0</v>
+        <v>73.0</v>
       </c>
       <c r="AK14" t="n">
-        <v>14.2</v>
+        <v>7.6</v>
       </c>
       <c r="AL14" t="s">
         <v>387</v>
       </c>
       <c r="AM14" t="n">
-        <v>245.0</v>
+        <v>70.0</v>
       </c>
       <c r="AN14" t="n">
-        <v>25.6</v>
+        <v>7.3</v>
       </c>
       <c r="AO14" t="n">
         <v>290.0</v>
@@ -10877,7 +10889,7 @@
         <v>0.0</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY14" t="n">
         <v>0.0</v>
@@ -11005,7 +11017,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B15" t="n">
         <v>2020.0</v>
@@ -11080,49 +11092,49 @@
         <v>36.1</v>
       </c>
       <c r="Z15" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.0</v>
+        <v>97.0</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.0</v>
+        <v>20.4</v>
       </c>
       <c r="AC15" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AD15" t="n">
-        <v>40.0</v>
+        <v>58.0</v>
       </c>
       <c r="AE15" t="n">
-        <v>8.4</v>
+        <v>12.2</v>
       </c>
       <c r="AF15" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AG15" t="n">
-        <v>58.0</v>
+        <v>55.0</v>
       </c>
       <c r="AH15" t="n">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="AI15" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AJ15" t="n">
-        <v>67.0</v>
+        <v>44.0</v>
       </c>
       <c r="AK15" t="n">
-        <v>14.1</v>
+        <v>9.2</v>
       </c>
       <c r="AL15" t="s">
         <v>387</v>
       </c>
       <c r="AM15" t="n">
-        <v>103.0</v>
+        <v>37.0</v>
       </c>
       <c r="AN15" t="n">
-        <v>21.6</v>
+        <v>7.8</v>
       </c>
       <c r="AO15" t="n">
         <v>127.0</v>
@@ -11206,7 +11218,7 @@
         <v>0.0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="BQ15" t="n">
         <v>0.0</v>
@@ -11242,7 +11254,7 @@
         <v>0.0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CC15" t="n">
         <v>0.0</v>
@@ -11260,7 +11272,7 @@
         <v>0.0</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CI15" t="n">
         <v>0.0</v>
@@ -11323,7 +11335,7 @@
         <v>0.0</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD15" t="n">
         <v>0.0</v>
@@ -11386,7 +11398,7 @@
         <v>0.0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY15" t="n">
         <v>0.0</v>
@@ -11514,7 +11526,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B16" t="n">
         <v>2020.0</v>
@@ -11559,7 +11571,7 @@
         <v>6.0</v>
       </c>
       <c r="P16" t="n">
-        <v>0.6</v>
+        <v>9999.0</v>
       </c>
       <c r="Q16" t="n">
         <v>59.0</v>
@@ -11589,25 +11601,25 @@
         <v>48.4</v>
       </c>
       <c r="Z16" t="s">
+        <v>385</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="AC16" t="s">
         <v>387</v>
       </c>
-      <c r="AA16" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>409</v>
-      </c>
       <c r="AD16" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="AE16" t="n">
-        <v>9.0</v>
+        <v>13.9</v>
       </c>
       <c r="AF16" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="AG16" t="n">
         <v>14.0</v>
@@ -11616,22 +11628,22 @@
         <v>11.5</v>
       </c>
       <c r="AI16" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="AJ16" t="n">
-        <v>18.0</v>
+        <v>12.0</v>
       </c>
       <c r="AK16" t="n">
-        <v>14.8</v>
+        <v>9.8</v>
       </c>
       <c r="AL16" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="AM16" t="n">
-        <v>33.0</v>
+        <v>11.0</v>
       </c>
       <c r="AN16" t="n">
-        <v>27.0</v>
+        <v>9.0</v>
       </c>
       <c r="AO16" t="n">
         <v>29.0</v>
@@ -11769,7 +11781,7 @@
         <v>0.0</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CI16" t="n">
         <v>0.0</v>
@@ -11832,7 +11844,7 @@
         <v>0.0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD16" t="n">
         <v>0.0</v>
@@ -11895,7 +11907,7 @@
         <v>0.0</v>
       </c>
       <c r="DX16" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY16" t="n">
         <v>0.0</v>
@@ -12023,7 +12035,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B17" t="n">
         <v>2020.0</v>
@@ -12098,49 +12110,49 @@
         <v>50.7</v>
       </c>
       <c r="Z17" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="AA17" t="n">
-        <v>45.0</v>
+        <v>252.0</v>
       </c>
       <c r="AB17" t="n">
-        <v>4.9</v>
+        <v>27.5</v>
       </c>
       <c r="AC17" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AD17" t="n">
+        <v>118.0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG17" t="n">
         <v>95.0</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AH17" t="n">
         <v>10.4</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>10.8</v>
       </c>
       <c r="AI17" t="s">
         <v>387</v>
       </c>
       <c r="AJ17" t="n">
-        <v>129.0</v>
+        <v>89.0</v>
       </c>
       <c r="AK17" t="n">
-        <v>14.1</v>
+        <v>9.7</v>
       </c>
       <c r="AL17" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="AM17" t="n">
-        <v>268.0</v>
+        <v>45.0</v>
       </c>
       <c r="AN17" t="n">
-        <v>29.2</v>
+        <v>4.9</v>
       </c>
       <c r="AO17" t="n">
         <v>263.0</v>
@@ -12532,7 +12544,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B18" t="n">
         <v>2020.0</v>
@@ -12559,7 +12571,7 @@
         <v>8.0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6</v>
+        <v>9999.0</v>
       </c>
       <c r="K18" t="n">
         <v>50.0</v>
@@ -12607,25 +12619,25 @@
         <v>15.1</v>
       </c>
       <c r="Z18" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AA18" t="n">
-        <v>13.0</v>
+        <v>210.0</v>
       </c>
       <c r="AB18" t="n">
-        <v>3.5</v>
+        <v>56.5</v>
       </c>
       <c r="AC18" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AD18" t="n">
-        <v>24.0</v>
+        <v>37.0</v>
       </c>
       <c r="AE18" t="n">
-        <v>6.5</v>
+        <v>9.9</v>
       </c>
       <c r="AF18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AG18" t="n">
         <v>36.0</v>
@@ -12634,22 +12646,22 @@
         <v>9.7</v>
       </c>
       <c r="AI18" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="AJ18" t="n">
-        <v>37.0</v>
+        <v>24.0</v>
       </c>
       <c r="AK18" t="n">
-        <v>9.9</v>
+        <v>6.5</v>
       </c>
       <c r="AL18" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="AM18" t="n">
-        <v>214.0</v>
+        <v>13.0</v>
       </c>
       <c r="AN18" t="n">
-        <v>57.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO18" t="n">
         <v>94.0</v>
@@ -12742,7 +12754,7 @@
         <v>0.0</v>
       </c>
       <c r="BS18" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="BT18" t="n">
         <v>0.0</v>
@@ -12769,7 +12781,7 @@
         <v>0.0</v>
       </c>
       <c r="CB18" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CC18" t="n">
         <v>0.0</v>
@@ -12850,7 +12862,7 @@
         <v>0.0</v>
       </c>
       <c r="DC18" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD18" t="n">
         <v>0.0</v>
@@ -13041,7 +13053,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B19" t="n">
         <v>2020.0</v>
@@ -13116,25 +13128,25 @@
         <v>6.4</v>
       </c>
       <c r="Z19" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>804.0</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>391</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>472.0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="AF19" t="s">
         <v>394</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>396</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>209.0</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>393</v>
       </c>
       <c r="AG19" t="n">
         <v>384.0</v>
@@ -13143,22 +13155,22 @@
         <v>13.3</v>
       </c>
       <c r="AI19" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="AJ19" t="n">
-        <v>472.0</v>
+        <v>209.0</v>
       </c>
       <c r="AK19" t="n">
-        <v>16.3</v>
+        <v>7.2</v>
       </c>
       <c r="AL19" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="AM19" t="n">
-        <v>849.0</v>
+        <v>148.0</v>
       </c>
       <c r="AN19" t="n">
-        <v>29.3</v>
+        <v>5.1</v>
       </c>
       <c r="AO19" t="n">
         <v>1038.0</v>
@@ -13550,7 +13562,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B20" t="n">
         <v>2020.0</v>
@@ -13625,49 +13637,49 @@
         <v>45.8</v>
       </c>
       <c r="Z20" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="AA20" t="n">
-        <v>39.0</v>
+        <v>101.0</v>
       </c>
       <c r="AB20" t="n">
-        <v>6.2</v>
+        <v>16.1</v>
       </c>
       <c r="AC20" t="s">
         <v>386</v>
       </c>
       <c r="AD20" t="n">
+        <v>76.0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>387</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>388</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>44.0</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AK20" t="n">
         <v>7.0</v>
       </c>
-      <c r="AF20" t="s">
-        <v>385</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>387</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>12.2</v>
-      </c>
       <c r="AL20" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="AM20" t="n">
-        <v>115.0</v>
+        <v>39.0</v>
       </c>
       <c r="AN20" t="n">
-        <v>18.3</v>
+        <v>6.2</v>
       </c>
       <c r="AO20" t="n">
         <v>240.0</v>
@@ -13787,7 +13799,7 @@
         <v>0.0</v>
       </c>
       <c r="CB20" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CC20" t="n">
         <v>0.0</v>
@@ -13805,7 +13817,7 @@
         <v>0.0</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CI20" t="n">
         <v>0.0</v>
@@ -13868,7 +13880,7 @@
         <v>0.0</v>
       </c>
       <c r="DC20" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD20" t="n">
         <v>0.0</v>
@@ -13931,7 +13943,7 @@
         <v>0.0</v>
       </c>
       <c r="DX20" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY20" t="n">
         <v>0.0</v>
@@ -14059,7 +14071,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B21" t="n">
         <v>2020.0</v>
@@ -14134,25 +14146,25 @@
         <v>18.4</v>
       </c>
       <c r="Z21" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA21" t="n">
-        <v>185.0</v>
+        <v>762.0</v>
       </c>
       <c r="AB21" t="n">
-        <v>6.3</v>
+        <v>25.8</v>
       </c>
       <c r="AC21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AD21" t="n">
-        <v>206.0</v>
+        <v>472.0</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.0</v>
+        <v>16.0</v>
       </c>
       <c r="AF21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG21" t="n">
         <v>214.0</v>
@@ -14161,22 +14173,22 @@
         <v>7.2</v>
       </c>
       <c r="AI21" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AJ21" t="n">
-        <v>472.0</v>
+        <v>206.0</v>
       </c>
       <c r="AK21" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="AL21" t="s">
         <v>387</v>
       </c>
       <c r="AM21" t="n">
-        <v>784.0</v>
+        <v>179.0</v>
       </c>
       <c r="AN21" t="n">
-        <v>26.5</v>
+        <v>6.1</v>
       </c>
       <c r="AO21" t="n">
         <v>1176.0</v>
@@ -14568,7 +14580,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B22" t="n">
         <v>2020.0</v>
@@ -14643,25 +14655,25 @@
         <v>20.6</v>
       </c>
       <c r="Z22" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="AA22" t="n">
-        <v>198.0</v>
+        <v>2005.0</v>
       </c>
       <c r="AB22" t="n">
-        <v>3.8</v>
+        <v>38.9</v>
       </c>
       <c r="AC22" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AD22" t="n">
-        <v>222.0</v>
+        <v>772.0</v>
       </c>
       <c r="AE22" t="n">
-        <v>4.3</v>
+        <v>15.0</v>
       </c>
       <c r="AF22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG22" t="n">
         <v>594.0</v>
@@ -14670,22 +14682,22 @@
         <v>11.5</v>
       </c>
       <c r="AI22" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AJ22" t="n">
-        <v>772.0</v>
+        <v>210.0</v>
       </c>
       <c r="AK22" t="n">
-        <v>15.0</v>
+        <v>4.1</v>
       </c>
       <c r="AL22" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AM22" t="n">
-        <v>2060.0</v>
+        <v>201.0</v>
       </c>
       <c r="AN22" t="n">
-        <v>40.0</v>
+        <v>3.9</v>
       </c>
       <c r="AO22" t="n">
         <v>1901.0</v>
@@ -15077,7 +15089,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B23" t="n">
         <v>2020.0</v>
@@ -15152,49 +15164,49 @@
         <v>62.6</v>
       </c>
       <c r="Z23" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="AA23" t="n">
-        <v>37.0</v>
+        <v>384.0</v>
       </c>
       <c r="AB23" t="n">
-        <v>4.7</v>
+        <v>48.8</v>
       </c>
       <c r="AC23" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="AD23" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>386</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>399</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM23" t="n">
         <v>39.0</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AN23" t="n">
         <v>5.0</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>387</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>385</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>388</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>391.0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>49.7</v>
       </c>
       <c r="AO23" t="n">
         <v>118.0</v>
@@ -15458,7 +15470,7 @@
         <v>0.0</v>
       </c>
       <c r="DX23" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY23" t="n">
         <v>0.0</v>
@@ -15586,7 +15598,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B24" t="n">
         <v>2020.0</v>
@@ -15664,22 +15676,22 @@
         <v>385</v>
       </c>
       <c r="AA24" t="n">
-        <v>41.0</v>
+        <v>158.0</v>
       </c>
       <c r="AB24" t="n">
-        <v>5.8</v>
+        <v>22.5</v>
       </c>
       <c r="AC24" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="AD24" t="n">
-        <v>67.0</v>
+        <v>129.0</v>
       </c>
       <c r="AE24" t="n">
-        <v>9.6</v>
+        <v>18.4</v>
       </c>
       <c r="AF24" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="AG24" t="n">
         <v>92.0</v>
@@ -15688,22 +15700,22 @@
         <v>13.1</v>
       </c>
       <c r="AI24" t="s">
+        <v>412</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>66.0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AL24" t="s">
         <v>387</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>134.0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>388</v>
-      </c>
       <c r="AM24" t="n">
-        <v>174.0</v>
+        <v>37.0</v>
       </c>
       <c r="AN24" t="n">
-        <v>24.8</v>
+        <v>5.3</v>
       </c>
       <c r="AO24" t="n">
         <v>200.0</v>
@@ -15967,7 +15979,7 @@
         <v>0.0</v>
       </c>
       <c r="DX24" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY24" t="n">
         <v>0.0</v>
@@ -16095,7 +16107,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B25" t="n">
         <v>2020.0</v>
@@ -16170,49 +16182,49 @@
         <v>22.6</v>
       </c>
       <c r="Z25" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA25" t="n">
-        <v>2440.0</v>
+        <v>10620.0</v>
       </c>
       <c r="AB25" t="n">
-        <v>6.4</v>
+        <v>27.9</v>
       </c>
       <c r="AC25" t="s">
         <v>391</v>
       </c>
       <c r="AD25" t="n">
+        <v>4873.0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG25" t="n">
         <v>2752.0</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AH25" t="n">
         <v>7.2</v>
       </c>
-      <c r="AF25" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>3020.0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AI25" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4873.0</v>
+        <v>2220.0</v>
       </c>
       <c r="AK25" t="n">
-        <v>12.8</v>
+        <v>5.8</v>
       </c>
       <c r="AL25" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="AM25" t="n">
-        <v>11047.0</v>
+        <v>2201.0</v>
       </c>
       <c r="AN25" t="n">
-        <v>29.0</v>
+        <v>5.8</v>
       </c>
       <c r="AO25" t="n">
         <v>13255.0</v>
@@ -16604,7 +16616,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B26" t="n">
         <v>2020.0</v>
@@ -16631,7 +16643,7 @@
         <v>18.0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.8</v>
+        <v>9999.0</v>
       </c>
       <c r="K26" t="n">
         <v>105.0</v>
@@ -16655,7 +16667,7 @@
         <v>19.0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.8</v>
+        <v>9999.0</v>
       </c>
       <c r="S26" t="n">
         <v>83.3</v>
@@ -16679,25 +16691,25 @@
         <v>4.9</v>
       </c>
       <c r="Z26" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="AA26" t="n">
-        <v>32.0</v>
+        <v>111.0</v>
       </c>
       <c r="AB26" t="n">
-        <v>8.2</v>
+        <v>28.5</v>
       </c>
       <c r="AC26" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AD26" t="n">
-        <v>33.0</v>
+        <v>88.0</v>
       </c>
       <c r="AE26" t="n">
-        <v>8.5</v>
+        <v>22.6</v>
       </c>
       <c r="AF26" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AG26" t="n">
         <v>41.0</v>
@@ -16706,22 +16718,22 @@
         <v>10.5</v>
       </c>
       <c r="AI26" t="s">
+        <v>393</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="AL26" t="s">
         <v>387</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>390</v>
-      </c>
       <c r="AM26" t="n">
-        <v>111.0</v>
+        <v>30.0</v>
       </c>
       <c r="AN26" t="n">
-        <v>28.5</v>
+        <v>7.7</v>
       </c>
       <c r="AO26" t="n">
         <v>167.0</v>
@@ -16841,7 +16853,7 @@
         <v>0.0</v>
       </c>
       <c r="CB26" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CC26" t="n">
         <v>0.0</v>
@@ -16859,7 +16871,7 @@
         <v>0.0</v>
       </c>
       <c r="CH26" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CI26" t="n">
         <v>0.0</v>
@@ -16922,7 +16934,7 @@
         <v>0.0</v>
       </c>
       <c r="DC26" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD26" t="n">
         <v>0.0</v>
@@ -16985,7 +16997,7 @@
         <v>0.0</v>
       </c>
       <c r="DX26" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY26" t="n">
         <v>0.0</v>
@@ -17113,7 +17125,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B27" t="n">
         <v>2020.0</v>
@@ -17134,19 +17146,19 @@
         <v>19.0</v>
       </c>
       <c r="H27" t="n">
-        <v>2.4</v>
+        <v>9999.0</v>
       </c>
       <c r="I27" t="n">
         <v>4.0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.5</v>
+        <v>9999.0</v>
       </c>
       <c r="K27" t="n">
         <v>13.0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>9999.0</v>
       </c>
       <c r="M27" t="n">
         <v>29.0</v>
@@ -17158,7 +17170,7 @@
         <v>4.0</v>
       </c>
       <c r="P27" t="n">
-        <v>0.5</v>
+        <v>9999.0</v>
       </c>
       <c r="Q27" t="n">
         <v>25.0</v>
@@ -17188,25 +17200,25 @@
         <v>39.7</v>
       </c>
       <c r="Z27" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="AA27" t="n">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="AB27" t="n">
-        <v>3.2</v>
+        <v>30.2</v>
       </c>
       <c r="AC27" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="AD27" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="AE27" t="n">
-        <v>4.8</v>
+        <v>20.6</v>
       </c>
       <c r="AF27" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AG27" t="n">
         <v>12.0</v>
@@ -17215,22 +17227,22 @@
         <v>19.0</v>
       </c>
       <c r="AI27" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AJ27" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="AK27" t="n">
-        <v>22.2</v>
+        <v>7.9</v>
       </c>
       <c r="AL27" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AM27" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="AN27" t="n">
-        <v>30.2</v>
+        <v>4.8</v>
       </c>
       <c r="AO27" t="n">
         <v>6.0</v>
@@ -17314,7 +17326,7 @@
         <v>0.0</v>
       </c>
       <c r="BP27" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="BQ27" t="n">
         <v>0.0</v>
@@ -17350,7 +17362,7 @@
         <v>0.0</v>
       </c>
       <c r="CB27" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CC27" t="n">
         <v>0.0</v>
@@ -17368,7 +17380,7 @@
         <v>0.0</v>
       </c>
       <c r="CH27" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CI27" t="n">
         <v>0.0</v>
@@ -17422,7 +17434,7 @@
         <v>0.0</v>
       </c>
       <c r="CZ27" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DA27" t="n">
         <v>0.0</v>
@@ -17431,7 +17443,7 @@
         <v>0.0</v>
       </c>
       <c r="DC27" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD27" t="n">
         <v>0.0</v>
@@ -17485,7 +17497,7 @@
         <v>0.0</v>
       </c>
       <c r="DU27" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DV27" t="n">
         <v>0.0</v>
@@ -17494,7 +17506,7 @@
         <v>0.0</v>
       </c>
       <c r="DX27" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY27" t="n">
         <v>0.0</v>
@@ -17548,7 +17560,7 @@
         <v>0.0</v>
       </c>
       <c r="EP27" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="EQ27" t="n">
         <v>0.0</v>
@@ -17622,7 +17634,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B28" t="n">
         <v>2020.0</v>
@@ -17700,22 +17712,22 @@
         <v>387</v>
       </c>
       <c r="AA28" t="n">
-        <v>42.0</v>
+        <v>99.0</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.9</v>
+        <v>18.5</v>
       </c>
       <c r="AC28" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="AD28" t="n">
-        <v>46.0</v>
+        <v>87.0</v>
       </c>
       <c r="AE28" t="n">
-        <v>8.6</v>
+        <v>16.3</v>
       </c>
       <c r="AF28" t="s">
-        <v>384</v>
+        <v>411</v>
       </c>
       <c r="AG28" t="n">
         <v>66.0</v>
@@ -17724,22 +17736,22 @@
         <v>12.3</v>
       </c>
       <c r="AI28" t="s">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="AJ28" t="n">
-        <v>92.0</v>
+        <v>46.0</v>
       </c>
       <c r="AK28" t="n">
-        <v>17.2</v>
+        <v>8.6</v>
       </c>
       <c r="AL28" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="AM28" t="n">
-        <v>115.0</v>
+        <v>39.0</v>
       </c>
       <c r="AN28" t="n">
-        <v>21.5</v>
+        <v>7.3</v>
       </c>
       <c r="AO28" t="n">
         <v>168.0</v>
@@ -18003,7 +18015,7 @@
         <v>0.0</v>
       </c>
       <c r="DX28" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY28" t="n">
         <v>0.0</v>
@@ -18131,7 +18143,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B29" t="n">
         <v>2020.0</v>
@@ -18182,7 +18194,7 @@
         <v>13.0</v>
       </c>
       <c r="R29" t="n">
-        <v>2.4</v>
+        <v>9999.0</v>
       </c>
       <c r="S29" t="n">
         <v>87.1</v>
@@ -18206,25 +18218,25 @@
         <v>7.3</v>
       </c>
       <c r="Z29" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA29" t="n">
-        <v>11.0</v>
+        <v>37.0</v>
       </c>
       <c r="AB29" t="n">
-        <v>6.2</v>
+        <v>20.8</v>
       </c>
       <c r="AC29" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="AD29" t="n">
-        <v>14.0</v>
+        <v>29.0</v>
       </c>
       <c r="AE29" t="n">
-        <v>7.9</v>
+        <v>16.3</v>
       </c>
       <c r="AF29" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG29" t="n">
         <v>26.0</v>
@@ -18233,22 +18245,22 @@
         <v>14.6</v>
       </c>
       <c r="AI29" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AJ29" t="n">
-        <v>29.0</v>
+        <v>12.0</v>
       </c>
       <c r="AK29" t="n">
-        <v>16.3</v>
+        <v>6.7</v>
       </c>
       <c r="AL29" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AM29" t="n">
-        <v>44.0</v>
+        <v>9.0</v>
       </c>
       <c r="AN29" t="n">
-        <v>24.7</v>
+        <v>5.1</v>
       </c>
       <c r="AO29" t="n">
         <v>68.0</v>
@@ -18332,7 +18344,7 @@
         <v>0.0</v>
       </c>
       <c r="BP29" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="BQ29" t="n">
         <v>0.0</v>
@@ -18341,7 +18353,7 @@
         <v>0.0</v>
       </c>
       <c r="BS29" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="BT29" t="n">
         <v>0.0</v>
@@ -18386,7 +18398,7 @@
         <v>0.0</v>
       </c>
       <c r="CH29" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="CI29" t="n">
         <v>0.0</v>
@@ -18449,7 +18461,7 @@
         <v>0.0</v>
       </c>
       <c r="DC29" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DD29" t="n">
         <v>0.0</v>
@@ -18512,7 +18524,7 @@
         <v>0.0</v>
       </c>
       <c r="DX29" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="DY29" t="n">
         <v>0.0</v>
@@ -18566,7 +18578,7 @@
         <v>0.0</v>
       </c>
       <c r="EP29" t="n">
-        <v>0.0</v>
+        <v>9999.0</v>
       </c>
       <c r="EQ29" t="n">
         <v>0.0</v>
@@ -18640,7 +18652,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B30" t="n">
         <v>2020.0</v>
@@ -18715,25 +18727,25 @@
         <v>18.2</v>
       </c>
       <c r="Z30" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>544.0</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="AC30" t="s">
         <v>391</v>
       </c>
-      <c r="AA30" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AC30" t="s">
-        <v>385</v>
-      </c>
       <c r="AD30" t="n">
-        <v>141.0</v>
+        <v>276.0</v>
       </c>
       <c r="AE30" t="n">
-        <v>6.6</v>
+        <v>13.0</v>
       </c>
       <c r="AF30" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG30" t="n">
         <v>206.0</v>
@@ -18745,19 +18757,19 @@
         <v>390</v>
       </c>
       <c r="AJ30" t="n">
-        <v>276.0</v>
+        <v>131.0</v>
       </c>
       <c r="AK30" t="n">
-        <v>13.0</v>
+        <v>6.2</v>
       </c>
       <c r="AL30" t="s">
         <v>387</v>
       </c>
       <c r="AM30" t="n">
-        <v>560.0</v>
+        <v>124.0</v>
       </c>
       <c r="AN30" t="n">
-        <v>26.4</v>
+        <v>5.8</v>
       </c>
       <c r="AO30" t="n">
         <v>785.0</v>
@@ -19149,7 +19161,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B31" t="n">
         <v>2020.0</v>
@@ -19224,49 +19236,49 @@
         <v>46.5</v>
       </c>
       <c r="Z31" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>284.0</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>390</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>263.0</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>101.0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI31" t="s">
         <v>393</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AJ31" t="n">
+        <v>77.0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>394</v>
+      </c>
+      <c r="AM31" t="n">
         <v>74.0</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AN31" t="n">
         <v>5.7</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>394</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>388</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>126.0</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>391</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>263.0</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>20.3</v>
-      </c>
-      <c r="AL31" t="s">
-        <v>387</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>299.0</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>23.0</v>
       </c>
       <c r="AO31" t="n">
         <v>581.0</v>

--- a/public/data/SUDORS_Dashboard_Data.xlsx
+++ b/public/data/SUDORS_Dashboard_Data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc\project\NCIPC_DOP_OADC_PIPELINE\SUDORS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E992BF0F-2212-4D42-BEE7-AB23F3CE6BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE2BC6A-FD78-4497-B01D-23569F8D601F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="3270" windowWidth="21600" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Info Tab" sheetId="2" r:id="rId1"/>
-    <sheet name="Data Dictionary" sheetId="3" r:id="rId2"/>
+    <sheet name="Info Tab" sheetId="3" r:id="rId1"/>
+    <sheet name="Data Dictionary" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -666,6 +666,615 @@
     <t>West Virginia</t>
   </si>
   <si>
+    <t>Variable Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Variable Values</t>
+  </si>
+  <si>
+    <t>All graphs</t>
+  </si>
+  <si>
+    <t>jurisdiction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OD2A funded jurisdictions </t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>The year in which the drug overdose deaths occurred</t>
+  </si>
+  <si>
+    <t>Numeric</t>
+  </si>
+  <si>
+    <t>Rate of overdose deaths by state and drug or drug class</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving any opioids</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths involving any opioids (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving illicitly manufactured fentanyls</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths involving illicitly manufactured fentanyls (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving heroin</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths involving heroin (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving prescription opioids</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths involving prescription opioids (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving any stimulants</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths involving any stimulants (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving cocaine</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths involving cocaine (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving methamphetamine</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths involving methamphetamine (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percentages of overdose deaths involving select drugs and drug classes</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving any opioids</t>
+  </si>
+  <si>
+    <t>Numeric; percentage ranging from 0-100</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving illicitly manufactured fentanyls</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving heroin</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving prescription opioids</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving any stimulants</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving cocaine</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving methamphetamine</t>
+  </si>
+  <si>
+    <t>Percentage of overdose deaths involving the most common opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo1_drugs</t>
+  </si>
+  <si>
+    <t>Most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo1_deaths</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving the most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo1_percent</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving the most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo2_drugs</t>
+  </si>
+  <si>
+    <t>Second most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo2_deaths</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving the second most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo2_percent</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving the second most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo3_drugs</t>
+  </si>
+  <si>
+    <t>Third most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo3_deaths</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving the third most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo3_percent</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving the third most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo4_drugs</t>
+  </si>
+  <si>
+    <t>Fourth most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo4_deaths</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving the fourth most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo4_percent</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving the fourth most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo5_drugs</t>
+  </si>
+  <si>
+    <t>Fifth most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo5_deaths</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving the fifth most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>combo5_percent</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving the fifth most frequent opioids and stimulants alone or in combination</t>
+  </si>
+  <si>
+    <t>Distribution of overdose deaths by opioid and stimulant involvement</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving opioids with stimulants</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving opioids with stimulants</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving opioids without stimulants</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving opioids without stimulants</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving stimulants without opioids</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving stimulants without opioids</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths involving neither opioids nor stimulants</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths involving neither opioids nor stimulants</t>
+  </si>
+  <si>
+    <t>How many drug overdose deaths occurred each month in 2020?</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in January of the specified year</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in February of the specified year</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in March of the specified year</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in April of the specified year</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in May of the specified year</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in June of the specified year</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in July of the specified year</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in August of the specified year</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in September of the specified year</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in October of the specified year</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in November of the specified year</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths that occurred in December of the specified year</t>
+  </si>
+  <si>
+    <t>Who died of a drug overdose in 2020? By Sex</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among males</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths among males (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among males</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among females</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths among females (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among females</t>
+  </si>
+  <si>
+    <t>Who died of a drug overdose in 2020? By Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among Asian/Pacific Islander, non-Hispanic persons</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths among Asian/Pacific Islanders non-Hispanic persons (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among Asian/Pacific Islanders non-Hispanic persons</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among American Indian/Alaska Natives non-Hispanic persons</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths among American Indian/Alaska Natives non-Hispanic persons (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among American Indian/Alaska Natives non-Hispanic persons</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among Black, non-Hispanic persons</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths among Black, non-Hispanic persons (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among Black, non-Hispanic persons</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among White, non-Hispanic persons</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths among White, non-Hispanic persons (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among White, non-Hispanic persons</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among Multi-race, non-Hispanic persons</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths among Multi-race, non-Hispanic persons (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among Multi-race, non-Hispanic persons</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among Hispanic persons</t>
+  </si>
+  <si>
+    <t>Age-adjusted rate of drug overdose deaths among Hispanic persons (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among Hispanic persons</t>
+  </si>
+  <si>
+    <t>Who died of a drug overdose in 2020? By Age (In Years)</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons less than 15 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among persons less than 15 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons less than 15 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons 15 to 24 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among persons 15 to 24 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons 15 to 24 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons 25 to 34 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among persons 25 to 34 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons 25 to 34 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons 35 to 44 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among persons 35 to 44 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons 35 to 44 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons 45 to 54 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among persons 45 to 54 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons 45 to 54 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons 55 to 64 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among persons 55 to 64 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons 55 to 64 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons 65 years and older</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among persons 65 years and older (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons 65 years and older</t>
+  </si>
+  <si>
+    <t>Who died of a drug overdose in 2020? By Age and Sex</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among females aged less than 15 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among females aged less than 15 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among females aged less than 15 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among females aged 15 to 24 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among females aged 15 to 24 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among females aged 15 to 24 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among females aged 25 to 34 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among females aged 25 to 34 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among females aged 25 to 34 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among females aged 35 to 44 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among females aged 35 to 44 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among females aged 35 to 44 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among females aged 45 to 54 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among females aged 45 to 54 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among females aged 45 to 54 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among females aged 55 to 64 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among females aged 55 to 64 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among females aged 55 to 64 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among females aged 65 years and older</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among females aged 65 years and older (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among females aged 65 years and older</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among males aged less than 15 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among males aged less than 15 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among males aged less than 15 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among males aged 15 to 24 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among males aged 15 to 24 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among males aged 15 to 24 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among males aged 25 to 34 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among males aged 25 to 34 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among males aged 25 to 34 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among males aged 35 to 44 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among males aged 35 to 44 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among males aged 35 to 44 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among males aged 45 to 54 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among males aged 45 to 54 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among males aged 45 to 54 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among males aged 55 to 64 years</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among males aged 55 to 64 years (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among males aged 55 to 64 years</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among males aged 65 years and older</t>
+  </si>
+  <si>
+    <t>Rate of drug overdose deaths among males aged 65 years and older (per 100,000 persons)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among males aged 65 years and older</t>
+  </si>
+  <si>
+    <t>Potential opportunities for intervention</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons who had at least one potential opportunity for intervention</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons who had at least one potential opportunity for intervention</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons who had a potential bystander present</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons who had a potential bystander present</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons with a mental health diagnosis</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons with a mental health diagnosis</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons who had at least one prior overdose</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons who had at least one prior overdose</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths in which the drug use that led to the fatal overdose was witnessed</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths in which the drug use that led to the fatal overdose was witnessed</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons who were recently released from institutional setting</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons who were recently released from institutional setting</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons who were currently receiving treatment for substance use disorder(s)</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons who were currently receiving treatment for substance use disorder(s)</t>
+  </si>
+  <si>
+    <t>Additional circumstances surrounding overdose deaths</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths in which naloxone was administered</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths in which naloxone was administered</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons who were currently receiving treatment for pain</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons who were currently receiving treatment for pain</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons who recently returned to use of opioids after a period of abstinence</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons who recently returned to use of opioids after a period of abstinence</t>
+  </si>
+  <si>
+    <t>Number of drug overdose deaths among persons experiencing homelessness or housing instability</t>
+  </si>
+  <si>
+    <t>Percent of drug overdose deaths among persons experiencing homelessness or housing instability</t>
+  </si>
+  <si>
     <t>Introduction</t>
   </si>
   <si>
@@ -684,9 +1293,6 @@
     <t xml:space="preserve">The gray sub-sections on the data dictionary tab correspond to the graph title on the SUDORS dashboard in which the data are presented. </t>
   </si>
   <si>
-    <t>Variable Values</t>
-  </si>
-  <si>
     <t>Numeric variables denoting percentages range from 0.0% to 100.0% with one decimal place.</t>
   </si>
   <si>
@@ -700,612 +1306,6 @@
   </si>
   <si>
     <t xml:space="preserve">Calculations of the percent of persons who died of a drug overdose in each demographic group are restricted to those with known demographic information. Calculations of the percent of persons who died of a drug overdose with evidence of specific circumstances are restricted to those with an available coroner or medical examiner report and with known information on each specific circumstance. Thus, percentages calculated from the counts of each variable divided by the total number of persons who died of a drug overdose death overall and by jurisdiction may differ from the percentages shown on the dashboard and available in this file. </t>
-  </si>
-  <si>
-    <t>Variable Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t>All graphs</t>
-  </si>
-  <si>
-    <t>jurisdiction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OD2A funded jurisdictions </t>
-  </si>
-  <si>
-    <t>Character</t>
-  </si>
-  <si>
-    <t>The year in which the drug overdose deaths occurred</t>
-  </si>
-  <si>
-    <t>Numeric</t>
-  </si>
-  <si>
-    <t>Rate of overdose deaths by state and drug or drug class</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving any opioids</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths involving any opioids (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving illicitly manufactured fentanyls</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths involving illicitly manufactured fentanyls (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving heroin</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths involving heroin (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving prescription opioids</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths involving prescription opioids (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving any stimulants</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths involving any stimulants (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving cocaine</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths involving cocaine (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving methamphetamine</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths involving methamphetamine (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percentages of overdose deaths involving select drugs and drug classes</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving any opioids</t>
-  </si>
-  <si>
-    <t>Numeric; percentage ranging from 0-100</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving illicitly manufactured fentanyls</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving heroin</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving prescription opioids</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving any stimulants</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving cocaine</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving methamphetamine</t>
-  </si>
-  <si>
-    <t>Percentage of overdose deaths involving the most common opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo1_drugs</t>
-  </si>
-  <si>
-    <t>Most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo1_deaths</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving the most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo1_percent</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving the most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo2_drugs</t>
-  </si>
-  <si>
-    <t>Second most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo2_deaths</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving the second most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo2_percent</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving the second most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo3_drugs</t>
-  </si>
-  <si>
-    <t>Third most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo3_deaths</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving the third most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo3_percent</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving the third most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo4_drugs</t>
-  </si>
-  <si>
-    <t>Fourth most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo4_deaths</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving the fourth most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo4_percent</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving the fourth most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo5_drugs</t>
-  </si>
-  <si>
-    <t>Fifth most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo5_deaths</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving the fifth most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>combo5_percent</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving the fifth most frequent opioids and stimulants alone or in combination</t>
-  </si>
-  <si>
-    <t>Distribution of overdose deaths by opioid and stimulant involvement</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving opioids with stimulants</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving opioids with stimulants</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving opioids without stimulants</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving opioids without stimulants</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving stimulants without opioids</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving stimulants without opioids</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths involving neither opioids nor stimulants</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths involving neither opioids nor stimulants</t>
-  </si>
-  <si>
-    <t>How many drug overdose deaths occurred each month in 2020?</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in January of the specified year</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in February of the specified year</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in March of the specified year</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in April of the specified year</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in May of the specified year</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in June of the specified year</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in July of the specified year</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in August of the specified year</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in September of the specified year</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in October of the specified year</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in November of the specified year</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths that occurred in December of the specified year</t>
-  </si>
-  <si>
-    <t>Who died of a drug overdose in 2020? By Sex</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among males</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths among males (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among males</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among females</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths among females (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among females</t>
-  </si>
-  <si>
-    <t>Who died of a drug overdose in 2020? By Race/Ethnicity</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among Asian/Pacific Islander, non-Hispanic persons</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths among Asian/Pacific Islanders non-Hispanic persons (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among Asian/Pacific Islanders non-Hispanic persons</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among American Indian/Alaska Natives non-Hispanic persons</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths among American Indian/Alaska Natives non-Hispanic persons (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among American Indian/Alaska Natives non-Hispanic persons</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among Black, non-Hispanic persons</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths among Black, non-Hispanic persons (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among Black, non-Hispanic persons</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among White, non-Hispanic persons</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths among White, non-Hispanic persons (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among White, non-Hispanic persons</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among Multi-race, non-Hispanic persons</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths among Multi-race, non-Hispanic persons (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among Multi-race, non-Hispanic persons</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among Hispanic persons</t>
-  </si>
-  <si>
-    <t>Age-adjusted rate of drug overdose deaths among Hispanic persons (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among Hispanic persons</t>
-  </si>
-  <si>
-    <t>Who died of a drug overdose in 2020? By Age (In Years)</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons less than 15 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among persons less than 15 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons less than 15 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons 15 to 24 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among persons 15 to 24 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons 15 to 24 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons 25 to 34 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among persons 25 to 34 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons 25 to 34 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons 35 to 44 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among persons 35 to 44 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons 35 to 44 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons 45 to 54 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among persons 45 to 54 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons 45 to 54 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons 55 to 64 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among persons 55 to 64 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons 55 to 64 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons 65 years and older</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among persons 65 years and older (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons 65 years and older</t>
-  </si>
-  <si>
-    <t>Who died of a drug overdose in 2020? By Age and Sex</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among females aged less than 15 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among females aged less than 15 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among females aged less than 15 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among females aged 15 to 24 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among females aged 15 to 24 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among females aged 15 to 24 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among females aged 25 to 34 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among females aged 25 to 34 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among females aged 25 to 34 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among females aged 35 to 44 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among females aged 35 to 44 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among females aged 35 to 44 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among females aged 45 to 54 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among females aged 45 to 54 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among females aged 45 to 54 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among females aged 55 to 64 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among females aged 55 to 64 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among females aged 55 to 64 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among females aged 65 years and older</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among females aged 65 years and older (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among females aged 65 years and older</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among males aged less than 15 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among males aged less than 15 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among males aged less than 15 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among males aged 15 to 24 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among males aged 15 to 24 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among males aged 15 to 24 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among males aged 25 to 34 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among males aged 25 to 34 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among males aged 25 to 34 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among males aged 35 to 44 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among males aged 35 to 44 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among males aged 35 to 44 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among males aged 45 to 54 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among males aged 45 to 54 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among males aged 45 to 54 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among males aged 55 to 64 years</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among males aged 55 to 64 years (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among males aged 55 to 64 years</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among males aged 65 years and older</t>
-  </si>
-  <si>
-    <t>Rate of drug overdose deaths among males aged 65 years and older (per 100,000 persons)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among males aged 65 years and older</t>
-  </si>
-  <si>
-    <t>Potential opportunities for intervention</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons who had at least one potential opportunity for intervention</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons who had at least one potential opportunity for intervention</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons who had a potential bystander present</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons who had a potential bystander present</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons with a mental health diagnosis</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons with a mental health diagnosis</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons who had at least one prior overdose</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons who had at least one prior overdose</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths in which the drug use that led to the fatal overdose was witnessed</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths in which the drug use that led to the fatal overdose was witnessed</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons who were recently released from institutional setting</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons who were recently released from institutional setting</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons who were currently receiving treatment for substance use disorder(s)</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons who were currently receiving treatment for substance use disorder(s)</t>
-  </si>
-  <si>
-    <t>Additional circumstances surrounding overdose deaths</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths in which naloxone was administered</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths in which naloxone was administered</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons who were currently receiving treatment for pain</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons who were currently receiving treatment for pain</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons who recently returned to use of opioids after a period of abstinence</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons who recently returned to use of opioids after a period of abstinence</t>
-  </si>
-  <si>
-    <t>Number of drug overdose deaths among persons experiencing homelessness or housing instability</t>
-  </si>
-  <si>
-    <t>Percent of drug overdose deaths among persons experiencing homelessness or housing instability</t>
   </si>
 </sst>
 </file>
@@ -1402,25 +1402,25 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C5BC25C1-F970-4DE0-B527-35810527F760}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{CD93B33D-8ED9-47ED-96A6-0BA0EED4EE70}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1731,177 +1731,177 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8F7E1A-A4E6-40FD-8912-A2E1FC1D1489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BA7B2A-5444-4350-B551-D814B83600CD}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="236" style="3" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="236" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>215</v>
+      <c r="A2" s="2" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>221</v>
+      <c r="A10" s="2" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>222</v>
+      <c r="A11" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>223</v>
+      <c r="A12" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
+      <c r="A14" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>225</v>
+      <c r="A15" s="5" t="s">
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -1911,7 +1911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1754B5A7-686E-4F5E-8D25-EBB7699C5667}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA32917-C7C4-4170-A57E-B8D1E61E1B88}">
   <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1920,1973 +1920,1968 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="103.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="65.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="31.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="103.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C8" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C9" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="B34" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C34" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="C35" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
+      <c r="B36" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C36" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C37" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C38" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="B39" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C39" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="B40" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="C40" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B41" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C41" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="B42" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C42" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="B43" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C43" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+      <c r="B44" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="C44" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
+      <c r="B45" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C45" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="C47" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="C48" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="C49" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="C50" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="C51" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="C52" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="C53" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
+      <c r="C54" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="C56" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="C57" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C47" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="C58" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="C59" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C49" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="C60" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="C61" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="C51" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="C62" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="3" t="s">
+      <c r="C63" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" s="3" t="s">
+      <c r="C64" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="C65" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="C66" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C56" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="C67" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="C57" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="C69" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B60" s="3" t="s">
+      <c r="C70" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="C71" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="3" t="s">
+      <c r="C72" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="C73" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="C74" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B66" s="3" t="s">
+      <c r="C76" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="C77" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+      <c r="C78" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="C79" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="3" t="s">
+      <c r="C80" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="3" t="s">
+      <c r="C81" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C71" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="C82" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C72" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="C83" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B74" s="3" t="s">
+      <c r="C84" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="7" t="s">
+      <c r="C85" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="3" t="s">
+      <c r="C86" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="3" t="s">
+      <c r="C87" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="3" t="s">
+      <c r="C88" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="3" t="s">
+      <c r="C89" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="3" t="s">
+      <c r="C90" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="3" t="s">
+      <c r="C91" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="3" t="s">
+      <c r="C92" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B83" s="3" t="s">
+      <c r="C93" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B84" s="3" t="s">
+      <c r="B94" s="6"/>
+      <c r="C94" s="6"/>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B85" s="3" t="s">
+      <c r="C95" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B86" s="3" t="s">
+      <c r="C96" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B87" s="3" t="s">
+      <c r="C97" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B88" s="3" t="s">
+      <c r="C98" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B89" s="3" t="s">
+      <c r="C99" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B90" s="3" t="s">
+      <c r="C100" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B91" s="3" t="s">
+      <c r="C101" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B92" s="3" t="s">
+      <c r="C102" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B93" s="3" t="s">
+      <c r="C103" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
+      <c r="C104" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B95" s="3" t="s">
+      <c r="C105" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B96" s="3" t="s">
+      <c r="C106" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B97" s="3" t="s">
+      <c r="C107" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B98" s="3" t="s">
+      <c r="C108" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B99" s="3" t="s">
+      <c r="C109" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C99" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B100" s="3" t="s">
+      <c r="C110" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C100" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="3" t="s">
+      <c r="C111" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B102" s="3" t="s">
+      <c r="C112" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B103" s="3" t="s">
+      <c r="C113" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B104" s="3" t="s">
+      <c r="C114" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B105" s="3" t="s">
+      <c r="C115" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="C105" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B106" s="3" t="s">
+      <c r="B116" s="6"/>
+      <c r="C116" s="6"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B107" s="3" t="s">
+      <c r="C117" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B108" s="3" t="s">
+      <c r="C118" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C108" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B109" s="3" t="s">
+      <c r="C119" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C109" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B110" s="3" t="s">
+      <c r="C120" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B111" s="3" t="s">
+      <c r="C121" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="C111" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B112" s="3" t="s">
+      <c r="C122" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B113" s="3" t="s">
+      <c r="C123" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B114" s="3" t="s">
+      <c r="C124" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C114" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B115" s="3" t="s">
+      <c r="C125" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="C115" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="7" t="s">
+      <c r="C126" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B116" s="7"/>
-      <c r="C116" s="7"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B117" s="3" t="s">
+      <c r="C127" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B118" s="3" t="s">
+      <c r="C128" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B119" s="3" t="s">
+      <c r="C129" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B120" s="3" t="s">
+      <c r="C130" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C120" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B121" s="3" t="s">
+      <c r="C131" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C121" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B122" s="3" t="s">
+      <c r="C132" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B123" s="3" t="s">
+      <c r="C133" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B124" s="3" t="s">
+      <c r="C134" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C124" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B125" s="3" t="s">
+      <c r="C135" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B126" s="3" t="s">
+      <c r="C136" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B127" s="3" t="s">
+      <c r="C137" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C127" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B128" s="3" t="s">
+      <c r="C138" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B129" s="3" t="s">
+      <c r="C139" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C129" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B130" s="3" t="s">
+      <c r="C140" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B131" s="3" t="s">
+      <c r="C141" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B132" s="3" t="s">
+      <c r="C142" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C132" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B133" s="3" t="s">
+      <c r="C143" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="C133" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B134" s="3" t="s">
+      <c r="C144" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B135" s="3" t="s">
+      <c r="C145" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C135" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B136" s="3" t="s">
+      <c r="C146" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C136" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B137" s="3" t="s">
+      <c r="C147" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B138" s="3" t="s">
+      <c r="C148" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C138" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B139" s="3" t="s">
+      <c r="C149" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="C139" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B140" s="3" t="s">
+      <c r="C150" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B141" s="3" t="s">
+      <c r="C151" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C141" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B142" s="3" t="s">
+      <c r="C152" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B143" s="3" t="s">
+      <c r="C153" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B144" s="3" t="s">
+      <c r="C154" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B145" s="3" t="s">
+      <c r="C155" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B146" s="3" t="s">
+      <c r="C156" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B147" s="3" t="s">
+      <c r="C157" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C147" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B148" s="3" t="s">
+      <c r="C158" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="C148" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B149" s="3" t="s">
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B150" s="3" t="s">
+      <c r="C160" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B151" s="3" t="s">
+      <c r="C161" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B152" s="3" t="s">
+      <c r="C162" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B153" s="3" t="s">
+      <c r="C163" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B154" s="3" t="s">
+      <c r="C164" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B155" s="3" t="s">
+      <c r="C165" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B156" s="3" t="s">
+      <c r="C166" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B157" s="3" t="s">
+      <c r="C167" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C157" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B158" s="3" t="s">
+      <c r="C168" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
+      <c r="C169" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B159" s="7"/>
-      <c r="C159" s="7"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B160" s="3" t="s">
+      <c r="C170" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B161" s="3" t="s">
+      <c r="C171" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B162" s="3" t="s">
+      <c r="C172" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C162" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B163" s="3" t="s">
+      <c r="C173" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C163" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B164" s="3" t="s">
+      <c r="B174" s="6"/>
+      <c r="C174" s="6"/>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C164" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B165" s="3" t="s">
+      <c r="C175" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="C165" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B166" s="3" t="s">
+      <c r="C176" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B167" s="3" t="s">
+      <c r="C177" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C167" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B168" s="3" t="s">
+      <c r="C178" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C168" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B169" s="3" t="s">
+      <c r="C179" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C169" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B170" s="3" t="s">
+      <c r="C180" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C170" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B171" s="3" t="s">
+      <c r="C181" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C171" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="B174" s="7"/>
-      <c r="C174" s="7"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>253</v>
+      <c r="C182" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A159:C159"/>
     <mergeCell ref="A174:C174"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A5:C5"/>
@@ -3894,6 +3889,11 @@
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A159:C159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3904,7 +3904,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FM31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -16279,7 +16281,7 @@
         <v>2922</v>
       </c>
       <c r="AZ25">
-        <v>3235</v>
+        <v>3236</v>
       </c>
       <c r="BA25">
         <v>4070</v>
@@ -18824,7 +18826,7 @@
         <v>141</v>
       </c>
       <c r="AZ30">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="BA30">
         <v>237</v>

--- a/public/data/SUDORS_Dashboard_Data.xlsx
+++ b/public/data/SUDORS_Dashboard_Data.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cdc\project\NCIPC_DOP_OADC_PIPELINE\SUDORS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEE2BC6A-FD78-4497-B01D-23569F8D601F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB102BD9-9677-4361-A50E-BDC049E0B0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="1455" windowWidth="26265" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info Tab" sheetId="3" r:id="rId1"/>
     <sheet name="Data Dictionary" sheetId="2" r:id="rId2"/>
     <sheet name="Data" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="449">
   <si>
     <t>Jurisdiction</t>
   </si>
@@ -543,12 +543,12 @@
     <t>Illicitly Manufactured Fentanyls with no other opioids or stimulants</t>
   </si>
   <si>
+    <t>Heroin, Prescription Opioids, and Methamphetamine</t>
+  </si>
+  <si>
     <t>Prescription Opioids with no other opioids or stimulants</t>
   </si>
   <si>
-    <t>Heroin, Prescription Opioids, and Methamphetamine</t>
-  </si>
-  <si>
     <t>Arizona</t>
   </si>
   <si>
@@ -1281,10 +1281,26 @@
     <t>This tab provides additional information about the data contained in the SUDORS dashboard downloadable file.</t>
   </si>
   <si>
-    <t>The information in this tab should be used along with the SUDORS dashboard data dictionary tab in this file and the information available on the SUDORS dashboard.</t>
-  </si>
-  <si>
-    <t>Please refer to the "Footnotes" and "Important Data Considerations" sections of the SUDORS dashboard for further details on which jurisdictions are included in this file and for other important data considerations.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The information in this tab should be used along with the SUDORS dashboard data dictionary tab in this file and the information available on the </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SUDORS dashboard.</t>
+    </r>
   </si>
   <si>
     <t>Orientation</t>
@@ -1306,13 +1322,79 @@
   </si>
   <si>
     <t xml:space="preserve">Calculations of the percent of persons who died of a drug overdose in each demographic group are restricted to those with known demographic information. Calculations of the percent of persons who died of a drug overdose with evidence of specific circumstances are restricted to those with an available coroner or medical examiner report and with known information on each specific circumstance. Thus, percentages calculated from the counts of each variable divided by the total number of persons who died of a drug overdose death overall and by jurisdiction may differ from the percentages shown on the dashboard and available in this file. </t>
+  </si>
+  <si>
+    <t>Footnotes</t>
+  </si>
+  <si>
+    <t>Potential opportunities for intervention included documented evidence of at least one of the following: potential bystander presence, a mental health diagnosis, prior overdose, fatal drug use witnessed, recent release from institutional setting (&lt; 1 month), or current treatment for substance use disorder(s). Percentages are only calculated among decedents with an available medical examiner or coroner report. Information represents evidence available in source documents; these are likely underestimated as death investigators might have limited information. Variables: intervopp_deaths, intervopp_percent.</t>
+  </si>
+  <si>
+    <t>"Any Opioids" includes deaths that had at least one opioid listed as a cause of death. The "Any Opioids" category includes Illicitly manufactured fentanyls, heroin, prescription opioids, and any other opioids involved in overdose deaths. Variables: opioids_deaths, opioids_rate, opioids_percent.</t>
+  </si>
+  <si>
+    <t>Fentanyl was classified as likely illicitly manufactured using toxicology, scene, and witness evidence. In the absence of sufficient evidence to classify fentanyl as illicit or prescription, fentanyl was classified as illicit because the vast majority of fentanyl overdose deaths involve illicit fentanyl. All fentanyl analogs except alfentanil, remifentanil, and sufentanil (which have legitimate human medical use) were included as illicitly manufactured fentanyls. IMFs: illicitly manufactured fentanyls. Variables: imfs_deaths, imfs_rate, imfs_percent.</t>
+  </si>
+  <si>
+    <t>Drugs coded as heroin were heroin and 6-acetylmorphine. In addition, morphine was coded as heroin if detected along with 6-acetylmorphine or if scene, toxicology, or witness evidence indicated presence of heroin impurities or other illicit drugs, injection, illicit drug use, or a history of heroin use. Variables: heroin_deaths, heroin_rate, heroin_percent.</t>
+  </si>
+  <si>
+    <t>"Any Stimulants" includes deaths that had at least one stimulant listed as a cause of death. The "Any Stimulants" category includes cocaine, methamphetamine, and any other stimulants involved in overdose deaths. Variables: stimulant_deaths, stimulant_rate, stimulant_percent.</t>
+  </si>
+  <si>
+    <t>Percentages are not mutually exclusive. Deaths involving multiple drugs were included in the percentages for each drug (i.e., heroin, cocaine, methamphetamine) or drug class (i.e., any opioids, illicitly manufactured fentanyls, prescription opioids, any stimulants). For example, a death involving both heroin and cocaine would be included in both the heroin and cocaine percentages.</t>
+  </si>
+  <si>
+    <t>Opioid and stimulant drugs or drug combinations include illicitly manufactured fentanyls, heroin, prescription opioids, other opioids (including non-specific opioids or other synthetic opioids such as U-4770, isotonitazene), cocaine, methamphetamine, and other stimulants (including amphetamines, cathinones, and central nervous system stimulants). If a category does not specify whether other opioids or other stimulants are or are not involved, then the category includes deaths involving the specified drugs (e.g., heroin, methamphetamine) with and without other opioids or other stimulants. Variables: combo1_drugs, combo2_drugs, combo3_drugs, combo4_drugs, combo5_drugs.</t>
+  </si>
+  <si>
+    <t>Demographic data are restricted to decedents with known information. Thus, the sum of the counts of each category may not add to the total due to missing data.</t>
+  </si>
+  <si>
+    <t>Circumstances represent evidence available in source documents; these are likely underestimated as death investigators might have limited information. Circumstance percentages are only among decedents with an available medical examiner or coroner report and with known information on the specified circumstance. Variables: sex, race/ethnicity, age, and age by sex variables.</t>
+  </si>
+  <si>
+    <t>Current treatment for substance use disorders (SUD) included medications for opioid use disorder (MOUD), living in an inpatient rehabilitation facility, or participation in mental health or SUD outpatient treatment. Variables: curr_SUDtrt_deaths, curr_SUDtrt_percent.</t>
+  </si>
+  <si>
+    <t>A potential bystander is defined as a person aged ≥11 years who was physically nearby either during or shortly preceding a drug overdose and potentially had an opportunity to intervene or respond to the overdose. This includes any persons in the same structure (e.g., same room or same building, but different room) as the decedent during that time. For example, the family member of an opioid overdose decedent who was in another room during the fatal incident would be considered a potential bystander if that person might have had an opportunity to provide life-saving measures such as naloxone administration, if adequate resources were available and the family member was aware that an overdose event could occur. This does not include, however, persons in different self-contained parts of larger buildings (e.g., a person in a different apartment in the same apartment building would not be considered a potential bystander). Variables: bystander_deaths, bystander_percent.</t>
+  </si>
+  <si>
+    <t>Recent release from an institutional setting includes decedents released within a month before death from institutional settings such as prisons/jails, residential treatment facilities, and psychiatric hospitals. Variables: recentrelease_deaths, recentrelease_percent.</t>
+  </si>
+  <si>
+    <t>Persons experiencing homelessness were those who resided in either places not designed for or ordinarily used as regular sleeping accommodations or in a supervised shelter or drop-in center designated to provide temporary living arrangements, congregate shelters, or temporary accommodations provided by a homeless shelter. Persons experiencing housing instability are those who are not experiencing homelessness, but lack the resources or support networks to obtain or retain permanent housing and includes interrelated challenges, such as trouble paying rent, overcrowding, moving frequently, or staying with relatives. Variables: homeless_deaths, homeless_percent.</t>
+  </si>
+  <si>
+    <t>Naloxone is a life-saving medication that can reverse an overdose from opioids, including heroin, fentanyl, and prescription opioid medications. Variables: naloxone_deaths, naloxone_percent.</t>
+  </si>
+  <si>
+    <t>Recent return to use of opioids includes decedents with a recent period of opioid use abstinence followed by return to use. Variables: returnopioids_deaths, returnopioids_percent.</t>
+  </si>
+  <si>
+    <t>Important Data Considerations</t>
+  </si>
+  <si>
+    <t>Data come from death certificate information, medical examiner or coroner reports, and forensic toxicology results entered into the State Unintentional Drug Overdose Reporting System (SUDORS). Jurisdictions report occurrent drug overdose deaths (i.e., all overdose deaths that occurred within the jurisdiction regardless of decedent residence). Percentages are among decedents with known information (e.g., counts for demographic data and month of death may not add to the total due to missing information). Rates are calculated from 2020 Census population denominators. Drug-, sex-, and race/ethnicity-specific rates are age-standardized to the 2010 Census population. The number of deaths, and corresponding rates, in SUDORS might not match the number and rate in CDC WONDER.</t>
+  </si>
+  <si>
+    <t>The Injury Surveillance Workgroup 7 consensus definition of a drug is used to determine SUDORS case. A drug is any chemical compound that is chiefly used by or administered to humans or animals as an aid in the diagnosis, treatment, or prevention of disease or injury, for the relief of pain or suffering, to control or improve any physiologic or pathologic condition, or for the feeling it causes. This definition specifically includes: street drugs such as heroin, cocaine, and hallucinogens; prescription drugs; over-the-counter drugs; biological substances such as vaccinations; veterinary drugs; dietary supplements; and non-medicinal substances used primarily for the feeling they cause. This definition specifically excludes: alcohol; tobacco; and chemicals that are deliberately inhaled for the feeling they cause but are chiefly used for other purposes (i.e., organic solvents and halogen derivatives of aliphatic and aromatic hydrocarbons).</t>
+  </si>
+  <si>
+    <t>Jurisdictions that reported all overdose deaths in their jurisdiction during 2020 and had medical examiner/coroner reports for at least 75% of deaths are included in this dashboard. These jurisdictions include Alaska, Arizona, Connecticut, Delaware, District of Columbia, Georgia, Kansas, Kentucky, Maine, Maryland, Massachusetts, Michigan, Minnesota, Mississippi, Montana, Nevada, New Hampshire, New Jersey, New Mexico, North Carolina, Ohio, Oklahoma, Oregon, Rhode Island, South Dakota, Utah, Vermont, Virginia, and West Virginia. The Overall category includes data from these 29 jurisdictions.</t>
+  </si>
+  <si>
+    <t>Drugs were classified as involved in overdose deaths if the medical examiner/coroner listed them as causing death on the death certificate, or in the medical examiner/coroner report, or postmortem toxicology report.</t>
+  </si>
+  <si>
+    <t>Deaths involving multiple drugs were included in the rates for each drug class. When the cause of death indicated multiple drugs were involved but did not indicate specific drugs, all drugs detected by postmortem toxicology testing were classified as involved in the drug overdose death. For example, if the cause of death was “multidrug overdose” and toxicology results were positive for five drugs, all five were classified as involved.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1341,6 +1423,27 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1396,31 +1499,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{CD93B33D-8ED9-47ED-96A6-0BA0EED4EE70}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{170F881C-807E-4C60-9E3A-88ADB15E1FAB}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1731,12 +1841,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BA7B2A-5444-4350-B551-D814B83600CD}">
-  <dimension ref="A1:Z15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEB3E831-C108-407A-8D6F-B68275BB32A0}">
+  <dimension ref="A1:Z38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1745,34 +1853,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1780,79 +1888,79 @@
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="7" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>420</v>
       </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
-      <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1864,58 +1972,166 @@
         <v>424</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-    </row>
-    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>427</v>
       </c>
     </row>
+    <row r="17" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>448</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{64ADAEF6-F493-4E7B-B5A7-BA566E52A348}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA32917-C7C4-4170-A57E-B8D1E61E1B88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CF45662-B197-41C2-957B-53361E4542F2}">
   <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A172" sqref="A172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1938,11 +2154,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -1967,11 +2183,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2150,11 +2366,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
@@ -2234,11 +2450,11 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
@@ -2406,11 +2622,11 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -2501,11 +2717,11 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
@@ -2640,11 +2856,11 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
+      <c r="A68" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -2713,11 +2929,11 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
@@ -2918,11 +3134,11 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
@@ -3156,11 +3372,11 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="6" t="s">
+      <c r="A116" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
@@ -3625,11 +3841,11 @@
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
+      <c r="A159" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
@@ -3786,11 +4002,11 @@
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
+      <c r="A174" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
@@ -3882,6 +4098,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="A159:C159"/>
     <mergeCell ref="A174:C174"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A5:C5"/>
@@ -3889,11 +4110,6 @@
     <mergeCell ref="A30:C30"/>
     <mergeCell ref="A46:C46"/>
     <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="A159:C159"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3904,9 +4120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FM31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -5032,7 +5246,7 @@
         <v>12.9</v>
       </c>
       <c r="AI3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ3">
         <v>113</v>
@@ -7050,7 +7264,7 @@
         <v>12.3</v>
       </c>
       <c r="AC7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD7">
         <v>200</v>
@@ -7577,7 +7791,7 @@
         <v>9.5</v>
       </c>
       <c r="AI8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ8">
         <v>39</v>
@@ -8077,7 +8291,7 @@
         <v>18.5</v>
       </c>
       <c r="AF9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG9">
         <v>140</v>
@@ -8595,7 +8809,7 @@
         <v>9.4</v>
       </c>
       <c r="AI10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ10">
         <v>39</v>
@@ -9113,7 +9327,7 @@
         <v>6.1</v>
       </c>
       <c r="AL11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM11">
         <v>126</v>
@@ -10122,7 +10336,7 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="AI13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ13">
         <v>180</v>
@@ -10640,7 +10854,7 @@
         <v>7.6</v>
       </c>
       <c r="AL14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM14">
         <v>70</v>
@@ -11140,7 +11354,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="AI15" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ15">
         <v>37</v>
@@ -11631,7 +11845,7 @@
         <v>23</v>
       </c>
       <c r="AC16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD16">
         <v>17</v>
@@ -12158,7 +12372,7 @@
         <v>10.4</v>
       </c>
       <c r="AI17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ17">
         <v>88</v>
@@ -12667,7 +12881,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AI18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ18">
         <v>24</v>
@@ -13676,7 +13890,7 @@
         <v>12.1</v>
       </c>
       <c r="AF20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG20">
         <v>50</v>
@@ -13685,7 +13899,7 @@
         <v>7.9</v>
       </c>
       <c r="AI20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AJ20">
         <v>44</v>
@@ -14203,7 +14417,7 @@
         <v>7</v>
       </c>
       <c r="AL21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM21">
         <v>179</v>
@@ -15194,7 +15408,7 @@
         <v>48.7</v>
       </c>
       <c r="AC23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AD23">
         <v>63</v>
@@ -15730,7 +15944,7 @@
         <v>9.4</v>
       </c>
       <c r="AL24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM24">
         <v>37</v>
@@ -16230,7 +16444,7 @@
         <v>7.2</v>
       </c>
       <c r="AI25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AJ25">
         <v>2213</v>
@@ -16748,7 +16962,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="AL26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM26">
         <v>30</v>
@@ -17239,7 +17453,7 @@
         <v>20.6</v>
       </c>
       <c r="AF27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AG27">
         <v>12</v>
@@ -17730,7 +17944,7 @@
         <v>40.200000000000003</v>
       </c>
       <c r="Z28" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AA28">
         <v>96</v>
@@ -18784,7 +18998,7 @@
         <v>6.2</v>
       </c>
       <c r="AL30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM30">
         <v>124</v>
